--- a/dataset/twitter_data.xlsx
+++ b/dataset/twitter_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297F023-E1E0-429B-A1FE-F8A5D44CEF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Kendi öğrencisine seçim şansı tanımadan elimizden alınmak istenen Maslak kampüsümüzün Şile'ye taşınmasını istemiyoruz.</t>
   </si>
@@ -94,13 +95,40 @@
   </si>
   <si>
     <t>Bir de olaya şurdan bakalım ablam benden bir yaş büyük ve üniversiteye gidiyor final tarihlerimiz aynı ama evde bir bilgisayar var ve en önemli nokta ise evde kamera yok ışıkçım. @FMVIsikUniv #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Okulunuzda daha şimdiden ögrencilere sınava hazırlık yapın diye kameralarınızı hazırlayın diyen hocalaŕınız var ,kardeşim elinizi vicdanınıza koyun .Böyle sınava hazırlık mı olur ,amacıniz ne #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Bizim tepkimiz okulumuzun zaten uzun süreden beri gelen yanlışları. Öğrencilerin dönemi uzasın diye elinden gelenin yapıldığı bir okul. Biz sınava ödeve projeye çalışmaya karşı değiliz eğer bizi müşteri olarak görüyorsa verdiğimiz paranın hakkını görelim. #isikbizimledeğil</t>
+  </si>
+  <si>
+    <t>Online eğitim süreci muazzam bir şekilde ilerlemedi ne yazık ki..her branş farklı olduğu için uygulamaya yönelik bölümler gereken verimliliği alamadılar hâl böyleyken en azından okul ücretlerinde indirime gidilebilirdi. #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Shuttle fiyatlarıyla beraber artan, herkesin karşılayamacağı yurt fiyatları, her sene 3000 er artan okul parası ve böyle olağanüstü bir durumda yapılan rezillik #isikbizimledeğil</t>
+  </si>
+  <si>
+    <t>Kamera sistemi ile sınav olursak o stresle yapacağımız sınavda olan başarısızlık bizim değil sizin başarısızlığınız olacak #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Normal şartlarda vize yüzdeleriyle en kötü geçebileceğimiz derslerin yüzdeleri düşürüldü. Finale bir umut bağladılar. O zaman en başından beri görüntülü sistemi uygulasaydınız. Son dakika bu kadar çirkin bir şekilde strese sokmasaydınız bizleri. #isikbizimledegil @FMVIsikUniv</t>
+  </si>
+  <si>
+    <t>Bu süreç en cok özel ünilere yaradı bence öğrencileri bırakmak için daha güzel bir yöntem olamaz midtermlerde standardın 2 katı zor sordular kısıtlı süreyle birlikte yapamadık zaten birşeyy #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Yanınızdayız sizleyiz bu zorlu süreci beraber atlatacağız gibi söylemleriniz havada kalmaya devam ediyor. Bu kadar öğrenci sizden açıklama bekliyor tahmini ne zaman duyarsınız sesimizi ? Çalışmamız gereken sınavlarımız varken bunlarla uğraşıyoruz yazık #isikbizimledeğil</t>
+  </si>
+  <si>
+    <t>Evet belki ben evdeyim. Önümde laptobum hiç bir derdim yok. Sınav konusundada şanslıyım geneli ödev. Ama ya tam tersi olsaydı? Ben arkadaşlarımın yanındayım! Kameralı sisteme karşıyım! #isikbizimledeğil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +152,20 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,15 +184,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,142 +473,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="https://twitter.com/hashtag/isikbizimledegil?src=hashtag_click" xr:uid="{B80973D6-94AF-46F1-A6A3-C96098F20395}"/>
+    <hyperlink ref="A27" r:id="rId2" display="https://twitter.com/hashtag/isikbizimlede%C4%9Fil?src=hashtag_click" xr:uid="{D41F7DB6-6059-44B9-967E-FAEA9A608CD2}"/>
+    <hyperlink ref="A28" r:id="rId3" display="https://twitter.com/hashtag/isikbizimledegil?src=hashtag_click" xr:uid="{C4717FAA-15C8-4E12-B764-BEF0E28839F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/dataset/twitter_data.xlsx
+++ b/dataset/twitter_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297F023-E1E0-429B-A1FE-F8A5D44CEF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AF306E-210B-4CF4-A70E-A7CFAB76AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Kendi öğrencisine seçim şansı tanımadan elimizden alınmak istenen Maslak kampüsümüzün Şile'ye taşınmasını istemiyoruz.</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Evet belki ben evdeyim. Önümde laptobum hiç bir derdim yok. Sınav konusundada şanslıyım geneli ödev. Ama ya tam tersi olsaydı? Ben arkadaşlarımın yanındayım! Kameralı sisteme karşıyım! #isikbizimledeğil</t>
+  </si>
+  <si>
+    <t>Öğrencinin online derste kamera açması zorunlu bile değilken zorla kamera açtırıp,online eğitim sürecinde yoklama alınmayacağını bildirip,yoklamayla tehdit etmenizin üstüne bide uzaktan gözetmeli sınav mı çıkartiyorsunuz? Işık uyuma! #isikbizimledegil</t>
+  </si>
+  <si>
+    <t>Günlerdir sesimizi üniversitemize duyuramıyoruz. Online dersler ve sınavlarla ilgili adaletsizliğeve düşüncesizliğe karşı duruyoruz fakat kaideye alınmıyoruz.Lütfen sesimiz olun. #soruisaretleriyle #isikunısesver @fatihportakal</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +656,16 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/twitter_data.xlsx
+++ b/dataset/twitter_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AF306E-210B-4CF4-A70E-A7CFAB76AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B437D39-73E7-434E-92A8-563ADDD05F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Kendi öğrencisine seçim şansı tanımadan elimizden alınmak istenen Maslak kampüsümüzün Şile'ye taşınmasını istemiyoruz.</t>
   </si>
@@ -128,13 +128,37 @@
   </si>
   <si>
     <t>Günlerdir sesimizi üniversitemize duyuramıyoruz. Online dersler ve sınavlarla ilgili adaletsizliğeve düşüncesizliğe karşı duruyoruz fakat kaideye alınmıyoruz.Lütfen sesimiz olun. #soruisaretleriyle #isikunısesver @fatihportakal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Dekanlık</t>
+  </si>
+  <si>
+    <t>Pandemi</t>
+  </si>
+  <si>
+    <t>Mali İşler</t>
+  </si>
+  <si>
+    <t>Destek ve Hizmetler</t>
+  </si>
+  <si>
+    <t>Öğrenci İşleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,20 +182,6 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,18 +200,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,201 +488,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1" display="https://twitter.com/hashtag/isikbizimledegil?src=hashtag_click" xr:uid="{B80973D6-94AF-46F1-A6A3-C96098F20395}"/>
-    <hyperlink ref="A27" r:id="rId2" display="https://twitter.com/hashtag/isikbizimlede%C4%9Fil?src=hashtag_click" xr:uid="{D41F7DB6-6059-44B9-967E-FAEA9A608CD2}"/>
-    <hyperlink ref="A28" r:id="rId3" display="https://twitter.com/hashtag/isikbizimledegil?src=hashtag_click" xr:uid="{C4717FAA-15C8-4E12-B764-BEF0E28839F3}"/>
+    <hyperlink ref="B28" r:id="rId1" display="https://twitter.com/hashtag/isikbizimlede%C4%9Fil?src=hashtag_click" xr:uid="{D41F7DB6-6059-44B9-967E-FAEA9A608CD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>